--- a/DriverInputs.xlsx
+++ b/DriverInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\OneDrive\GitHub\ECE553\ECE553\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{A8A5CDED-704E-47D7-B976-CF1135F8DAC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E55D0692-6C2E-458F-B224-9AD4C98DF21D}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{759C47D4-5796-4CAA-8E2E-CC6114BC6F10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3AD94FD3-255A-46A6-90A5-756194B6344D}"/>
   <bookViews>
-    <workbookView xWindow="-14370" yWindow="4605" windowWidth="12150" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3915" yWindow="1650" windowWidth="22920" windowHeight="17370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,10 @@
     <t>Time</t>
   </si>
   <si>
-    <t>accel_percentage</t>
+    <t>Driver_Accel_PCT</t>
   </si>
   <si>
-    <t>break_percentage</t>
+    <t>Driver_Braking_PCT</t>
   </si>
 </sst>
 </file>
@@ -441,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1461"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A326" workbookViewId="0">
-      <selection activeCell="J340" sqref="J340"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4236,10 +4236,10 @@
         <v>5.1449999999999996</v>
       </c>
       <c r="B345" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C345" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4247,10 +4247,10 @@
         <v>5.16</v>
       </c>
       <c r="B346" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C346" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4258,10 +4258,10 @@
         <v>5.1749999999999998</v>
       </c>
       <c r="B347" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C347" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4269,10 +4269,10 @@
         <v>5.19</v>
       </c>
       <c r="B348" s="3">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C348" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4280,10 +4280,10 @@
         <v>5.2050000000000001</v>
       </c>
       <c r="B349" s="3">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C349" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4291,10 +4291,10 @@
         <v>5.22</v>
       </c>
       <c r="B350" s="3">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C350" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4302,10 +4302,10 @@
         <v>5.2350000000000003</v>
       </c>
       <c r="B351" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C351" s="3">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4313,10 +4313,10 @@
         <v>5.25</v>
       </c>
       <c r="B352" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C352" s="3">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4324,10 +4324,10 @@
         <v>5.2649999999999997</v>
       </c>
       <c r="B353" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C353" s="3">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4335,10 +4335,10 @@
         <v>5.28</v>
       </c>
       <c r="B354" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C354" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4346,10 +4346,10 @@
         <v>5.2949999999999999</v>
       </c>
       <c r="B355" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C355" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4357,10 +4357,10 @@
         <v>5.31</v>
       </c>
       <c r="B356" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C356" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4368,10 +4368,10 @@
         <v>5.3250000000000002</v>
       </c>
       <c r="B357" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C357" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4379,10 +4379,10 @@
         <v>5.34</v>
       </c>
       <c r="B358" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C358" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4390,10 +4390,10 @@
         <v>5.3550000000000004</v>
       </c>
       <c r="B359" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C359" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4401,10 +4401,10 @@
         <v>5.37</v>
       </c>
       <c r="B360" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C360" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4412,10 +4412,10 @@
         <v>5.3849999999999998</v>
       </c>
       <c r="B361" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C361" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4423,10 +4423,10 @@
         <v>5.4</v>
       </c>
       <c r="B362" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C362" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4434,10 +4434,10 @@
         <v>5.415</v>
       </c>
       <c r="B363" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C363" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4445,10 +4445,10 @@
         <v>5.43</v>
       </c>
       <c r="B364" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C364" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4456,10 +4456,10 @@
         <v>5.4450000000000003</v>
       </c>
       <c r="B365" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C365" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4467,10 +4467,10 @@
         <v>5.46</v>
       </c>
       <c r="B366" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C366" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4478,10 +4478,10 @@
         <v>5.4749999999999996</v>
       </c>
       <c r="B367" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C367" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4489,10 +4489,10 @@
         <v>5.49</v>
       </c>
       <c r="B368" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C368" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4500,10 +4500,10 @@
         <v>5.5049999999999999</v>
       </c>
       <c r="B369" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C369" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4511,10 +4511,10 @@
         <v>5.52</v>
       </c>
       <c r="B370" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C370" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4522,10 +4522,10 @@
         <v>5.5350000000000001</v>
       </c>
       <c r="B371" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C371" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4533,10 +4533,10 @@
         <v>5.55</v>
       </c>
       <c r="B372" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C372" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4544,10 +4544,10 @@
         <v>5.5650000000000004</v>
       </c>
       <c r="B373" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C373" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4555,10 +4555,10 @@
         <v>5.58</v>
       </c>
       <c r="B374" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C374" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4566,10 +4566,10 @@
         <v>5.5949999999999998</v>
       </c>
       <c r="B375" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C375" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4577,10 +4577,10 @@
         <v>5.61</v>
       </c>
       <c r="B376" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C376" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4588,10 +4588,10 @@
         <v>5.625</v>
       </c>
       <c r="B377" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C377" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4599,10 +4599,10 @@
         <v>5.64</v>
       </c>
       <c r="B378" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C378" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4610,10 +4610,10 @@
         <v>5.6550000000000002</v>
       </c>
       <c r="B379" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C379" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4621,10 +4621,10 @@
         <v>5.67</v>
       </c>
       <c r="B380" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C380" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4632,10 +4632,10 @@
         <v>5.6849999999999996</v>
       </c>
       <c r="B381" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C381" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4643,10 +4643,10 @@
         <v>5.7</v>
       </c>
       <c r="B382" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C382" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4654,10 +4654,10 @@
         <v>5.7149999999999999</v>
       </c>
       <c r="B383" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C383" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4665,10 +4665,10 @@
         <v>5.73</v>
       </c>
       <c r="B384" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C384" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4676,10 +4676,10 @@
         <v>5.7450000000000001</v>
       </c>
       <c r="B385" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C385" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4687,10 +4687,10 @@
         <v>5.76</v>
       </c>
       <c r="B386" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C386" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4698,10 +4698,10 @@
         <v>5.7750000000000004</v>
       </c>
       <c r="B387" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C387" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4709,10 +4709,10 @@
         <v>5.79</v>
       </c>
       <c r="B388" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C388" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4720,10 +4720,10 @@
         <v>5.8049999999999997</v>
       </c>
       <c r="B389" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C389" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4731,10 +4731,10 @@
         <v>5.82</v>
       </c>
       <c r="B390" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C390" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4742,10 +4742,10 @@
         <v>5.835</v>
       </c>
       <c r="B391" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C391" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4753,10 +4753,10 @@
         <v>5.85</v>
       </c>
       <c r="B392" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C392" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4764,10 +4764,10 @@
         <v>5.8650000000000002</v>
       </c>
       <c r="B393" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C393" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4775,10 +4775,10 @@
         <v>5.88</v>
       </c>
       <c r="B394" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C394" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4786,10 +4786,10 @@
         <v>5.8949999999999996</v>
       </c>
       <c r="B395" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C395" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4797,10 +4797,10 @@
         <v>5.91</v>
       </c>
       <c r="B396" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C396" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4808,10 +4808,10 @@
         <v>5.9249999999999998</v>
       </c>
       <c r="B397" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C397" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4819,10 +4819,10 @@
         <v>5.94</v>
       </c>
       <c r="B398" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C398" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4830,10 +4830,10 @@
         <v>5.9550000000000001</v>
       </c>
       <c r="B399" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C399" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -4841,10 +4841,10 @@
         <v>5.97</v>
       </c>
       <c r="B400" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C400" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -4852,10 +4852,10 @@
         <v>5.9850000000000003</v>
       </c>
       <c r="B401" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C401" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -4863,10 +4863,10 @@
         <v>6</v>
       </c>
       <c r="B402" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C402" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -4874,10 +4874,10 @@
         <v>6.0149999999999997</v>
       </c>
       <c r="B403" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C403" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -4885,10 +4885,10 @@
         <v>6.03</v>
       </c>
       <c r="B404" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C404" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -4896,10 +4896,10 @@
         <v>6.0449999999999999</v>
       </c>
       <c r="B405" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C405" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -4907,10 +4907,10 @@
         <v>6.06</v>
       </c>
       <c r="B406" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C406" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -4918,10 +4918,10 @@
         <v>6.0750000000000002</v>
       </c>
       <c r="B407" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C407" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -4929,10 +4929,10 @@
         <v>6.09</v>
       </c>
       <c r="B408" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C408" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -4940,10 +4940,10 @@
         <v>6.1050000000000004</v>
       </c>
       <c r="B409" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C409" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -4951,10 +4951,10 @@
         <v>6.12</v>
       </c>
       <c r="B410" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C410" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -4962,10 +4962,10 @@
         <v>6.1349999999999998</v>
       </c>
       <c r="B411" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C411" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -4973,10 +4973,10 @@
         <v>6.15</v>
       </c>
       <c r="B412" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C412" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -4984,10 +4984,10 @@
         <v>6.165</v>
       </c>
       <c r="B413" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C413" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -4995,10 +4995,10 @@
         <v>6.18</v>
       </c>
       <c r="B414" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C414" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -5006,10 +5006,10 @@
         <v>6.1950000000000003</v>
       </c>
       <c r="B415" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C415" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -5017,10 +5017,10 @@
         <v>6.21</v>
       </c>
       <c r="B416" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C416" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -5028,10 +5028,10 @@
         <v>6.2249999999999996</v>
       </c>
       <c r="B417" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C417" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -5039,10 +5039,10 @@
         <v>6.24</v>
       </c>
       <c r="B418" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C418" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -5050,10 +5050,10 @@
         <v>6.2549999999999999</v>
       </c>
       <c r="B419" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C419" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -5061,10 +5061,10 @@
         <v>6.27</v>
       </c>
       <c r="B420" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C420" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -5072,10 +5072,10 @@
         <v>6.2850000000000001</v>
       </c>
       <c r="B421" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C421" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5083,10 +5083,10 @@
         <v>6.3</v>
       </c>
       <c r="B422" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C422" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5094,10 +5094,10 @@
         <v>6.3150000000000004</v>
       </c>
       <c r="B423" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C423" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -5105,10 +5105,10 @@
         <v>6.33</v>
       </c>
       <c r="B424" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C424" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5116,10 +5116,10 @@
         <v>6.3449999999999998</v>
       </c>
       <c r="B425" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C425" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5127,10 +5127,10 @@
         <v>6.36</v>
       </c>
       <c r="B426" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C426" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -5138,10 +5138,10 @@
         <v>6.375</v>
       </c>
       <c r="B427" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C427" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -5149,10 +5149,10 @@
         <v>6.39</v>
       </c>
       <c r="B428" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C428" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5160,10 +5160,10 @@
         <v>6.4050000000000002</v>
       </c>
       <c r="B429" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C429" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5171,10 +5171,10 @@
         <v>6.42</v>
       </c>
       <c r="B430" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C430" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5182,10 +5182,10 @@
         <v>6.4349999999999996</v>
       </c>
       <c r="B431" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C431" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -5193,10 +5193,10 @@
         <v>6.45</v>
       </c>
       <c r="B432" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C432" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -5204,10 +5204,10 @@
         <v>6.4649999999999999</v>
       </c>
       <c r="B433" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C433" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -5215,10 +5215,10 @@
         <v>6.48</v>
       </c>
       <c r="B434" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C434" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -5226,10 +5226,10 @@
         <v>6.4950000000000001</v>
       </c>
       <c r="B435" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C435" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -5237,10 +5237,10 @@
         <v>6.51</v>
       </c>
       <c r="B436" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C436" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -5248,10 +5248,10 @@
         <v>6.5250000000000004</v>
       </c>
       <c r="B437" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C437" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -5259,10 +5259,10 @@
         <v>6.54</v>
       </c>
       <c r="B438" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C438" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5270,10 +5270,10 @@
         <v>6.5549999999999997</v>
       </c>
       <c r="B439" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C439" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -5281,10 +5281,10 @@
         <v>6.57</v>
       </c>
       <c r="B440" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C440" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -5292,10 +5292,10 @@
         <v>6.585</v>
       </c>
       <c r="B441" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C441" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5303,10 +5303,10 @@
         <v>6.6</v>
       </c>
       <c r="B442" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C442" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -5314,10 +5314,10 @@
         <v>6.6150000000000002</v>
       </c>
       <c r="B443" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C443" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -5325,10 +5325,10 @@
         <v>6.63</v>
       </c>
       <c r="B444" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C444" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5336,10 +5336,10 @@
         <v>6.6449999999999996</v>
       </c>
       <c r="B445" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C445" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5347,10 +5347,10 @@
         <v>6.66</v>
       </c>
       <c r="B446" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C446" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5358,10 +5358,10 @@
         <v>6.6749999999999998</v>
       </c>
       <c r="B447" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C447" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5369,10 +5369,10 @@
         <v>6.69</v>
       </c>
       <c r="B448" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C448" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5380,10 +5380,10 @@
         <v>6.7050000000000001</v>
       </c>
       <c r="B449" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C449" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -5391,10 +5391,10 @@
         <v>6.72</v>
       </c>
       <c r="B450" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C450" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5402,10 +5402,10 @@
         <v>6.7350000000000003</v>
       </c>
       <c r="B451" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C451" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5413,10 +5413,10 @@
         <v>6.75</v>
       </c>
       <c r="B452" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C452" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -5424,10 +5424,10 @@
         <v>6.7649999999999997</v>
       </c>
       <c r="B453" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C453" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -5435,10 +5435,10 @@
         <v>6.78</v>
       </c>
       <c r="B454" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C454" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5446,10 +5446,10 @@
         <v>6.7949999999999999</v>
       </c>
       <c r="B455" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C455" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5457,10 +5457,10 @@
         <v>6.81</v>
       </c>
       <c r="B456" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C456" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5468,10 +5468,10 @@
         <v>6.8250000000000002</v>
       </c>
       <c r="B457" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C457" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5479,10 +5479,10 @@
         <v>6.84</v>
       </c>
       <c r="B458" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C458" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5490,10 +5490,10 @@
         <v>6.8550000000000004</v>
       </c>
       <c r="B459" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C459" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5501,10 +5501,10 @@
         <v>6.87</v>
       </c>
       <c r="B460" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C460" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5512,10 +5512,10 @@
         <v>6.8849999999999998</v>
       </c>
       <c r="B461" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C461" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5523,10 +5523,10 @@
         <v>6.9</v>
       </c>
       <c r="B462" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C462" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5534,10 +5534,10 @@
         <v>6.915</v>
       </c>
       <c r="B463" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C463" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5545,10 +5545,10 @@
         <v>6.93</v>
       </c>
       <c r="B464" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C464" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5556,10 +5556,10 @@
         <v>6.9450000000000003</v>
       </c>
       <c r="B465" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C465" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5567,10 +5567,10 @@
         <v>6.96</v>
       </c>
       <c r="B466" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C466" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5578,10 +5578,10 @@
         <v>6.9749999999999996</v>
       </c>
       <c r="B467" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C467" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5589,10 +5589,10 @@
         <v>6.99</v>
       </c>
       <c r="B468" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C468" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5600,10 +5600,10 @@
         <v>7.0049999999999999</v>
       </c>
       <c r="B469" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C469" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5611,10 +5611,10 @@
         <v>7.02</v>
       </c>
       <c r="B470" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C470" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5622,10 +5622,10 @@
         <v>7.0350000000000001</v>
       </c>
       <c r="B471" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C471" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5633,10 +5633,10 @@
         <v>7.05</v>
       </c>
       <c r="B472" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C472" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5644,10 +5644,10 @@
         <v>7.0650000000000004</v>
       </c>
       <c r="B473" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C473" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5655,10 +5655,10 @@
         <v>7.08</v>
       </c>
       <c r="B474" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C474" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5666,10 +5666,10 @@
         <v>7.0949999999999998</v>
       </c>
       <c r="B475" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C475" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5677,10 +5677,10 @@
         <v>7.11</v>
       </c>
       <c r="B476" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C476" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5688,10 +5688,10 @@
         <v>7.125</v>
       </c>
       <c r="B477" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C477" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5699,10 +5699,10 @@
         <v>7.14</v>
       </c>
       <c r="B478" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C478" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5710,10 +5710,10 @@
         <v>7.1550000000000002</v>
       </c>
       <c r="B479" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C479" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5721,10 +5721,10 @@
         <v>7.17</v>
       </c>
       <c r="B480" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C480" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5732,10 +5732,10 @@
         <v>7.1849999999999996</v>
       </c>
       <c r="B481" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C481" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5743,10 +5743,10 @@
         <v>7.2</v>
       </c>
       <c r="B482" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C482" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5754,10 +5754,10 @@
         <v>7.2149999999999999</v>
       </c>
       <c r="B483" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C483" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5765,10 +5765,10 @@
         <v>7.23</v>
       </c>
       <c r="B484" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C484" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5776,10 +5776,10 @@
         <v>7.2450000000000001</v>
       </c>
       <c r="B485" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C485" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5787,10 +5787,10 @@
         <v>7.26</v>
       </c>
       <c r="B486" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C486" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5798,10 +5798,10 @@
         <v>7.2750000000000004</v>
       </c>
       <c r="B487" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C487" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5809,10 +5809,10 @@
         <v>7.29</v>
       </c>
       <c r="B488" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C488" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -5820,10 +5820,10 @@
         <v>7.3049999999999997</v>
       </c>
       <c r="B489" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C489" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5831,10 +5831,10 @@
         <v>7.32</v>
       </c>
       <c r="B490" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C490" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5842,10 +5842,10 @@
         <v>7.335</v>
       </c>
       <c r="B491" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C491" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -5853,10 +5853,10 @@
         <v>7.35</v>
       </c>
       <c r="B492" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C492" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -5864,10 +5864,10 @@
         <v>7.3650000000000002</v>
       </c>
       <c r="B493" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C493" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -5875,10 +5875,10 @@
         <v>7.38</v>
       </c>
       <c r="B494" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C494" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -5886,10 +5886,10 @@
         <v>7.3949999999999996</v>
       </c>
       <c r="B495" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C495" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -5897,10 +5897,10 @@
         <v>7.41</v>
       </c>
       <c r="B496" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C496" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -5908,10 +5908,10 @@
         <v>7.4249999999999998</v>
       </c>
       <c r="B497" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C497" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -5919,10 +5919,10 @@
         <v>7.44</v>
       </c>
       <c r="B498" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C498" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -5930,10 +5930,10 @@
         <v>7.4550000000000001</v>
       </c>
       <c r="B499" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C499" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -5941,10 +5941,10 @@
         <v>7.47</v>
       </c>
       <c r="B500" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C500" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -5952,10 +5952,10 @@
         <v>7.4850000000000003</v>
       </c>
       <c r="B501" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C501" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -5963,10 +5963,10 @@
         <v>7.5</v>
       </c>
       <c r="B502" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C502" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -5974,10 +5974,10 @@
         <v>7.5149999999999997</v>
       </c>
       <c r="B503" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C503" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -5985,10 +5985,10 @@
         <v>7.53</v>
       </c>
       <c r="B504" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C504" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -5996,10 +5996,10 @@
         <v>7.5449999999999999</v>
       </c>
       <c r="B505" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C505" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -6007,10 +6007,10 @@
         <v>7.56</v>
       </c>
       <c r="B506" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C506" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -6018,10 +6018,10 @@
         <v>7.5750000000000002</v>
       </c>
       <c r="B507" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C507" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -6029,10 +6029,10 @@
         <v>7.59</v>
       </c>
       <c r="B508" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C508" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -6040,10 +6040,10 @@
         <v>7.6050000000000004</v>
       </c>
       <c r="B509" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C509" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -6051,10 +6051,10 @@
         <v>7.62</v>
       </c>
       <c r="B510" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C510" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -6062,10 +6062,10 @@
         <v>7.6349999999999998</v>
       </c>
       <c r="B511" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C511" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -6073,10 +6073,10 @@
         <v>7.65</v>
       </c>
       <c r="B512" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C512" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -6084,10 +6084,10 @@
         <v>7.665</v>
       </c>
       <c r="B513" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C513" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -6095,10 +6095,10 @@
         <v>7.68</v>
       </c>
       <c r="B514" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C514" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6106,10 +6106,10 @@
         <v>7.6950000000000003</v>
       </c>
       <c r="B515" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C515" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -6117,10 +6117,10 @@
         <v>7.71</v>
       </c>
       <c r="B516" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C516" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -6128,10 +6128,10 @@
         <v>7.7249999999999996</v>
       </c>
       <c r="B517" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C517" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -6139,10 +6139,10 @@
         <v>7.74</v>
       </c>
       <c r="B518" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C518" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -6150,10 +6150,10 @@
         <v>7.7549999999999999</v>
       </c>
       <c r="B519" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C519" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -6161,10 +6161,10 @@
         <v>7.77</v>
       </c>
       <c r="B520" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C520" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -6172,10 +6172,10 @@
         <v>7.7850000000000001</v>
       </c>
       <c r="B521" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C521" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -6183,10 +6183,10 @@
         <v>7.8</v>
       </c>
       <c r="B522" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C522" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -6194,10 +6194,10 @@
         <v>7.8150000000000004</v>
       </c>
       <c r="B523" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C523" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -6205,10 +6205,10 @@
         <v>7.83</v>
       </c>
       <c r="B524" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C524" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -6216,10 +6216,10 @@
         <v>7.8449999999999998</v>
       </c>
       <c r="B525" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C525" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -6227,10 +6227,10 @@
         <v>7.86</v>
       </c>
       <c r="B526" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C526" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -6238,10 +6238,10 @@
         <v>7.875</v>
       </c>
       <c r="B527" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C527" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -6249,10 +6249,10 @@
         <v>7.89</v>
       </c>
       <c r="B528" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C528" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -6260,10 +6260,10 @@
         <v>7.9050000000000002</v>
       </c>
       <c r="B529" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C529" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -6271,10 +6271,10 @@
         <v>7.92</v>
       </c>
       <c r="B530" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C530" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -6282,10 +6282,10 @@
         <v>7.9349999999999996</v>
       </c>
       <c r="B531" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C531" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -6293,10 +6293,10 @@
         <v>7.95</v>
       </c>
       <c r="B532" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C532" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -6304,10 +6304,10 @@
         <v>7.9649999999999999</v>
       </c>
       <c r="B533" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C533" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -6315,10 +6315,10 @@
         <v>7.98</v>
       </c>
       <c r="B534" s="3">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C534" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -6326,10 +6326,10 @@
         <v>7.9950000000000001</v>
       </c>
       <c r="B535" s="3">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C535" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -6337,10 +6337,10 @@
         <v>8.01</v>
       </c>
       <c r="B536" s="3">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C536" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -6348,10 +6348,10 @@
         <v>8.0250000000000004</v>
       </c>
       <c r="B537" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C537" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -6359,10 +6359,10 @@
         <v>8.0399999999999991</v>
       </c>
       <c r="B538" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C538" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -6370,10 +6370,10 @@
         <v>8.0549999999999997</v>
       </c>
       <c r="B539" s="3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C539" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -6384,7 +6384,7 @@
         <v>0</v>
       </c>
       <c r="C540" s="3">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -6395,7 +6395,7 @@
         <v>0</v>
       </c>
       <c r="C541" s="3">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -6406,7 +6406,7 @@
         <v>0</v>
       </c>
       <c r="C542" s="3">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -6417,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="C543" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -6428,7 +6428,7 @@
         <v>0</v>
       </c>
       <c r="C544" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -6439,7 +6439,7 @@
         <v>0</v>
       </c>
       <c r="C545" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -6450,7 +6450,7 @@
         <v>0</v>
       </c>
       <c r="C546" s="3">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -6461,7 +6461,7 @@
         <v>0</v>
       </c>
       <c r="C547" s="3">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="C548" s="3">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -16520,5 +16520,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DriverInputs.xlsx
+++ b/DriverInputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\OneDrive\GitHub\ECE553\ECE553\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{759C47D4-5796-4CAA-8E2E-CC6114BC6F10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3AD94FD3-255A-46A6-90A5-756194B6344D}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{759C47D4-5796-4CAA-8E2E-CC6114BC6F10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0ED338BB-69DB-4C00-81C9-9214DECC5D0C}"/>
   <bookViews>
     <workbookView xWindow="3915" yWindow="1650" windowWidth="22920" windowHeight="17370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -441,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1461"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" topLeftCell="A992" workbookViewId="0">
+      <selection activeCell="H1013" sqref="H1013"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6315,7 +6315,7 @@
         <v>7.98</v>
       </c>
       <c r="B534" s="3">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C534" s="3">
         <v>0</v>
@@ -6326,7 +6326,7 @@
         <v>7.9950000000000001</v>
       </c>
       <c r="B535" s="3">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C535" s="3">
         <v>0</v>
@@ -6337,7 +6337,7 @@
         <v>8.01</v>
       </c>
       <c r="B536" s="3">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C536" s="3">
         <v>0</v>
@@ -6348,7 +6348,7 @@
         <v>8.0250000000000004</v>
       </c>
       <c r="B537" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C537" s="3">
         <v>0</v>
@@ -6359,7 +6359,7 @@
         <v>8.0399999999999991</v>
       </c>
       <c r="B538" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C538" s="3">
         <v>0</v>
@@ -6370,7 +6370,7 @@
         <v>8.0549999999999997</v>
       </c>
       <c r="B539" s="3">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="C539" s="3">
         <v>0</v>
@@ -6381,10 +6381,10 @@
         <v>8.07</v>
       </c>
       <c r="B540" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C540" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -6392,10 +6392,10 @@
         <v>8.0850000000000009</v>
       </c>
       <c r="B541" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C541" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -6403,10 +6403,10 @@
         <v>8.1</v>
       </c>
       <c r="B542" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C542" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -6414,10 +6414,10 @@
         <v>8.1150000000000002</v>
       </c>
       <c r="B543" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C543" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -6425,10 +6425,10 @@
         <v>8.1300000000000008</v>
       </c>
       <c r="B544" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C544" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -6436,10 +6436,10 @@
         <v>8.1449999999999996</v>
       </c>
       <c r="B545" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C545" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -6447,10 +6447,10 @@
         <v>8.16</v>
       </c>
       <c r="B546" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C546" s="3">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -6458,10 +6458,10 @@
         <v>8.1750000000000007</v>
       </c>
       <c r="B547" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C547" s="3">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -6469,10 +6469,10 @@
         <v>8.19</v>
       </c>
       <c r="B548" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C548" s="3">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -6480,10 +6480,10 @@
         <v>8.2050000000000001</v>
       </c>
       <c r="B549" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C549" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -6491,10 +6491,10 @@
         <v>8.2200000000000006</v>
       </c>
       <c r="B550" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C550" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -6502,10 +6502,10 @@
         <v>8.2349999999999994</v>
       </c>
       <c r="B551" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C551" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -6513,10 +6513,10 @@
         <v>8.25</v>
       </c>
       <c r="B552" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C552" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -6524,10 +6524,10 @@
         <v>8.2650000000000006</v>
       </c>
       <c r="B553" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C553" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6535,10 +6535,10 @@
         <v>8.2799999999999994</v>
       </c>
       <c r="B554" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C554" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6546,10 +6546,10 @@
         <v>8.2949999999999999</v>
       </c>
       <c r="B555" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C555" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -6557,10 +6557,10 @@
         <v>8.31</v>
       </c>
       <c r="B556" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C556" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6568,10 +6568,10 @@
         <v>8.3249999999999993</v>
       </c>
       <c r="B557" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C557" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -6579,10 +6579,10 @@
         <v>8.34</v>
       </c>
       <c r="B558" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C558" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6590,10 +6590,10 @@
         <v>8.3550000000000004</v>
       </c>
       <c r="B559" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C559" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -6601,10 +6601,10 @@
         <v>8.3699999999999992</v>
       </c>
       <c r="B560" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C560" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6612,10 +6612,10 @@
         <v>8.3849999999999998</v>
       </c>
       <c r="B561" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C561" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -6623,10 +6623,10 @@
         <v>8.4</v>
       </c>
       <c r="B562" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C562" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -6634,10 +6634,10 @@
         <v>8.4149999999999991</v>
       </c>
       <c r="B563" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C563" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6645,10 +6645,10 @@
         <v>8.43</v>
       </c>
       <c r="B564" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C564" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -6656,10 +6656,10 @@
         <v>8.4450000000000003</v>
       </c>
       <c r="B565" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C565" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6667,10 +6667,10 @@
         <v>8.4600000000000009</v>
       </c>
       <c r="B566" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C566" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -6678,10 +6678,10 @@
         <v>8.4749999999999996</v>
       </c>
       <c r="B567" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C567" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -6689,10 +6689,10 @@
         <v>8.49</v>
       </c>
       <c r="B568" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C568" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -6700,10 +6700,10 @@
         <v>8.5050000000000008</v>
       </c>
       <c r="B569" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C569" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -6711,10 +6711,10 @@
         <v>8.52</v>
       </c>
       <c r="B570" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C570" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -6722,10 +6722,10 @@
         <v>8.5350000000000001</v>
       </c>
       <c r="B571" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C571" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -6733,10 +6733,10 @@
         <v>8.5500000000000007</v>
       </c>
       <c r="B572" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C572" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -6744,10 +6744,10 @@
         <v>8.5649999999999995</v>
       </c>
       <c r="B573" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C573" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -6755,10 +6755,10 @@
         <v>8.58</v>
       </c>
       <c r="B574" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C574" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -6766,10 +6766,10 @@
         <v>8.5950000000000006</v>
       </c>
       <c r="B575" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C575" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -6777,10 +6777,10 @@
         <v>8.61</v>
       </c>
       <c r="B576" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C576" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -6788,10 +6788,10 @@
         <v>8.625</v>
       </c>
       <c r="B577" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C577" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -6799,10 +6799,10 @@
         <v>8.64</v>
       </c>
       <c r="B578" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C578" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -6810,10 +6810,10 @@
         <v>8.6549999999999994</v>
       </c>
       <c r="B579" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C579" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -6821,10 +6821,10 @@
         <v>8.67</v>
       </c>
       <c r="B580" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C580" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -6832,10 +6832,10 @@
         <v>8.6850000000000005</v>
       </c>
       <c r="B581" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C581" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -6843,10 +6843,10 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="B582" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C582" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -6854,10 +6854,10 @@
         <v>8.7149999999999999</v>
       </c>
       <c r="B583" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C583" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -6865,10 +6865,10 @@
         <v>8.73</v>
       </c>
       <c r="B584" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C584" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -6876,10 +6876,10 @@
         <v>8.7449999999999992</v>
       </c>
       <c r="B585" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C585" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -6887,10 +6887,10 @@
         <v>8.76</v>
       </c>
       <c r="B586" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C586" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -6898,10 +6898,10 @@
         <v>8.7750000000000004</v>
       </c>
       <c r="B587" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C587" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -6909,10 +6909,10 @@
         <v>8.7899999999999991</v>
       </c>
       <c r="B588" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C588" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -6920,10 +6920,10 @@
         <v>8.8049999999999997</v>
       </c>
       <c r="B589" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C589" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -6931,10 +6931,10 @@
         <v>8.82</v>
       </c>
       <c r="B590" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C590" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -6942,10 +6942,10 @@
         <v>8.8350000000000009</v>
       </c>
       <c r="B591" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C591" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -6953,10 +6953,10 @@
         <v>8.85</v>
       </c>
       <c r="B592" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C592" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -6964,10 +6964,10 @@
         <v>8.8650000000000002</v>
       </c>
       <c r="B593" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C593" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -6975,10 +6975,10 @@
         <v>8.8800000000000008</v>
       </c>
       <c r="B594" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C594" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -6986,10 +6986,10 @@
         <v>8.8949999999999996</v>
       </c>
       <c r="B595" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C595" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -6997,10 +6997,10 @@
         <v>8.91</v>
       </c>
       <c r="B596" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C596" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -7008,10 +7008,10 @@
         <v>8.9250000000000007</v>
       </c>
       <c r="B597" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C597" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -7019,10 +7019,10 @@
         <v>8.94</v>
       </c>
       <c r="B598" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C598" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -7030,10 +7030,10 @@
         <v>8.9550000000000001</v>
       </c>
       <c r="B599" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C599" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -7041,10 +7041,10 @@
         <v>8.9700000000000006</v>
       </c>
       <c r="B600" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C600" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -7052,10 +7052,10 @@
         <v>8.9849999999999994</v>
       </c>
       <c r="B601" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C601" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -7063,10 +7063,10 @@
         <v>9</v>
       </c>
       <c r="B602" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C602" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -7074,10 +7074,10 @@
         <v>9.0150000000000006</v>
       </c>
       <c r="B603" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C603" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -7085,10 +7085,10 @@
         <v>9.0299999999999994</v>
       </c>
       <c r="B604" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C604" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -7096,10 +7096,10 @@
         <v>9.0449999999999999</v>
       </c>
       <c r="B605" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C605" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -7107,10 +7107,10 @@
         <v>9.06</v>
       </c>
       <c r="B606" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C606" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -7118,10 +7118,10 @@
         <v>9.0749999999999993</v>
       </c>
       <c r="B607" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C607" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -7129,10 +7129,10 @@
         <v>9.09</v>
       </c>
       <c r="B608" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C608" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -7140,10 +7140,10 @@
         <v>9.1050000000000004</v>
       </c>
       <c r="B609" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C609" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -7151,10 +7151,10 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="B610" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C610" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -7162,10 +7162,10 @@
         <v>9.1349999999999998</v>
       </c>
       <c r="B611" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C611" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -7173,10 +7173,10 @@
         <v>9.15</v>
       </c>
       <c r="B612" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C612" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -7184,10 +7184,10 @@
         <v>9.1649999999999991</v>
       </c>
       <c r="B613" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C613" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -7195,10 +7195,10 @@
         <v>9.18</v>
       </c>
       <c r="B614" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C614" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -7206,10 +7206,10 @@
         <v>9.1950000000000003</v>
       </c>
       <c r="B615" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C615" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -7217,10 +7217,10 @@
         <v>9.2100000000000009</v>
       </c>
       <c r="B616" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C616" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -7228,10 +7228,10 @@
         <v>9.2249999999999996</v>
       </c>
       <c r="B617" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C617" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -7239,10 +7239,10 @@
         <v>9.24</v>
       </c>
       <c r="B618" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C618" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -7250,10 +7250,10 @@
         <v>9.2550000000000008</v>
       </c>
       <c r="B619" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C619" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -7261,10 +7261,10 @@
         <v>9.27</v>
       </c>
       <c r="B620" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C620" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -7272,10 +7272,10 @@
         <v>9.2850000000000001</v>
       </c>
       <c r="B621" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C621" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -7283,10 +7283,10 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="B622" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C622" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -7294,10 +7294,10 @@
         <v>9.3149999999999995</v>
       </c>
       <c r="B623" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C623" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -7305,10 +7305,10 @@
         <v>9.33</v>
       </c>
       <c r="B624" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C624" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -7316,10 +7316,10 @@
         <v>9.3450000000000006</v>
       </c>
       <c r="B625" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C625" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -7327,10 +7327,10 @@
         <v>9.36</v>
       </c>
       <c r="B626" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C626" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -7338,10 +7338,10 @@
         <v>9.375</v>
       </c>
       <c r="B627" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C627" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -7349,10 +7349,10 @@
         <v>9.39</v>
       </c>
       <c r="B628" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C628" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -7360,10 +7360,10 @@
         <v>9.4049999999999994</v>
       </c>
       <c r="B629" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C629" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -7371,10 +7371,10 @@
         <v>9.42</v>
       </c>
       <c r="B630" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C630" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -7382,10 +7382,10 @@
         <v>9.4350000000000005</v>
       </c>
       <c r="B631" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C631" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -7393,10 +7393,10 @@
         <v>9.4499999999999993</v>
       </c>
       <c r="B632" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C632" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -7404,10 +7404,10 @@
         <v>9.4649999999999999</v>
       </c>
       <c r="B633" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C633" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -7415,10 +7415,10 @@
         <v>9.48</v>
       </c>
       <c r="B634" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C634" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -7426,10 +7426,10 @@
         <v>9.4949999999999992</v>
       </c>
       <c r="B635" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C635" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -7437,10 +7437,10 @@
         <v>9.51</v>
       </c>
       <c r="B636" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C636" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -7448,10 +7448,10 @@
         <v>9.5250000000000004</v>
       </c>
       <c r="B637" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C637" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -7459,10 +7459,10 @@
         <v>9.5399999999999991</v>
       </c>
       <c r="B638" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C638" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -7470,10 +7470,10 @@
         <v>9.5549999999999997</v>
       </c>
       <c r="B639" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C639" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -7481,10 +7481,10 @@
         <v>9.57</v>
       </c>
       <c r="B640" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C640" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -7492,10 +7492,10 @@
         <v>9.5850000000000009</v>
       </c>
       <c r="B641" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C641" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -7503,10 +7503,10 @@
         <v>9.6</v>
       </c>
       <c r="B642" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C642" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -7514,10 +7514,10 @@
         <v>9.6150000000000002</v>
       </c>
       <c r="B643" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C643" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -7525,10 +7525,10 @@
         <v>9.6300000000000008</v>
       </c>
       <c r="B644" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C644" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -7536,10 +7536,10 @@
         <v>9.6449999999999996</v>
       </c>
       <c r="B645" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C645" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -7547,10 +7547,10 @@
         <v>9.66</v>
       </c>
       <c r="B646" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C646" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -7558,10 +7558,10 @@
         <v>9.6750000000000007</v>
       </c>
       <c r="B647" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C647" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -7569,10 +7569,10 @@
         <v>9.69</v>
       </c>
       <c r="B648" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C648" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -7580,10 +7580,10 @@
         <v>9.7050000000000001</v>
       </c>
       <c r="B649" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C649" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -7591,10 +7591,10 @@
         <v>9.7200000000000006</v>
       </c>
       <c r="B650" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C650" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -7602,10 +7602,10 @@
         <v>9.7349999999999994</v>
       </c>
       <c r="B651" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C651" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -7613,10 +7613,10 @@
         <v>9.75</v>
       </c>
       <c r="B652" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C652" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -7624,10 +7624,10 @@
         <v>9.7650000000000006</v>
       </c>
       <c r="B653" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C653" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -7635,10 +7635,10 @@
         <v>9.7799999999999994</v>
       </c>
       <c r="B654" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C654" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -7646,10 +7646,10 @@
         <v>9.7949999999999999</v>
       </c>
       <c r="B655" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C655" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -7657,10 +7657,10 @@
         <v>9.81</v>
       </c>
       <c r="B656" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C656" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -7668,10 +7668,10 @@
         <v>9.8249999999999993</v>
       </c>
       <c r="B657" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C657" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -7679,10 +7679,10 @@
         <v>9.84</v>
       </c>
       <c r="B658" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C658" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -7690,10 +7690,10 @@
         <v>9.8550000000000004</v>
       </c>
       <c r="B659" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C659" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -7701,10 +7701,10 @@
         <v>9.8699999999999992</v>
       </c>
       <c r="B660" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C660" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -7712,10 +7712,10 @@
         <v>9.8849999999999998</v>
       </c>
       <c r="B661" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C661" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -7723,10 +7723,10 @@
         <v>9.9</v>
       </c>
       <c r="B662" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C662" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -7734,10 +7734,10 @@
         <v>9.9149999999999991</v>
       </c>
       <c r="B663" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C663" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -7745,10 +7745,10 @@
         <v>9.93</v>
       </c>
       <c r="B664" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C664" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -7756,10 +7756,10 @@
         <v>9.9450000000000003</v>
       </c>
       <c r="B665" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C665" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -7767,10 +7767,10 @@
         <v>9.9600000000000009</v>
       </c>
       <c r="B666" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C666" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -7778,10 +7778,10 @@
         <v>9.9749999999999996</v>
       </c>
       <c r="B667" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C667" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -7789,10 +7789,10 @@
         <v>9.99</v>
       </c>
       <c r="B668" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C668" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -7800,10 +7800,10 @@
         <v>10.005000000000001</v>
       </c>
       <c r="B669" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C669" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -7811,10 +7811,10 @@
         <v>10.02</v>
       </c>
       <c r="B670" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C670" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -7822,10 +7822,10 @@
         <v>10.035</v>
       </c>
       <c r="B671" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C671" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -7833,10 +7833,10 @@
         <v>10.050000000000001</v>
       </c>
       <c r="B672" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C672" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -7844,10 +7844,10 @@
         <v>10.065</v>
       </c>
       <c r="B673" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C673" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -7855,10 +7855,10 @@
         <v>10.08</v>
       </c>
       <c r="B674" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C674" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:3">
@@ -7866,10 +7866,10 @@
         <v>10.095000000000001</v>
       </c>
       <c r="B675" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C675" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:3">
@@ -7877,10 +7877,10 @@
         <v>10.11</v>
       </c>
       <c r="B676" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C676" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:3">
@@ -7888,10 +7888,10 @@
         <v>10.125</v>
       </c>
       <c r="B677" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C677" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:3">
@@ -7899,10 +7899,10 @@
         <v>10.14</v>
       </c>
       <c r="B678" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C678" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:3">
@@ -7910,10 +7910,10 @@
         <v>10.154999999999999</v>
       </c>
       <c r="B679" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C679" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:3">
@@ -7921,10 +7921,10 @@
         <v>10.17</v>
       </c>
       <c r="B680" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C680" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:3">
@@ -7932,10 +7932,10 @@
         <v>10.185</v>
       </c>
       <c r="B681" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C681" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:3">
@@ -7943,10 +7943,10 @@
         <v>10.199999999999999</v>
       </c>
       <c r="B682" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C682" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:3">
@@ -7954,10 +7954,10 @@
         <v>10.215</v>
       </c>
       <c r="B683" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C683" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:3">
@@ -7965,10 +7965,10 @@
         <v>10.23</v>
       </c>
       <c r="B684" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C684" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:3">
@@ -7976,10 +7976,10 @@
         <v>10.244999999999999</v>
       </c>
       <c r="B685" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C685" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:3">
@@ -7987,10 +7987,10 @@
         <v>10.26</v>
       </c>
       <c r="B686" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C686" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:3">
@@ -7998,10 +7998,10 @@
         <v>10.275</v>
       </c>
       <c r="B687" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C687" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:3">
@@ -8009,10 +8009,10 @@
         <v>10.29</v>
       </c>
       <c r="B688" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C688" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:3">
@@ -8020,10 +8020,10 @@
         <v>10.305</v>
       </c>
       <c r="B689" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C689" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:3">
@@ -8031,10 +8031,10 @@
         <v>10.32</v>
       </c>
       <c r="B690" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C690" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:3">
@@ -8042,10 +8042,10 @@
         <v>10.335000000000001</v>
       </c>
       <c r="B691" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C691" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:3">
@@ -8053,10 +8053,10 @@
         <v>10.35</v>
       </c>
       <c r="B692" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C692" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:3">
@@ -8064,10 +8064,10 @@
         <v>10.365</v>
       </c>
       <c r="B693" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C693" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:3">
@@ -8075,10 +8075,10 @@
         <v>10.38</v>
       </c>
       <c r="B694" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C694" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:3">
@@ -8086,10 +8086,10 @@
         <v>10.395</v>
       </c>
       <c r="B695" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C695" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:3">
@@ -8097,10 +8097,10 @@
         <v>10.41</v>
       </c>
       <c r="B696" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C696" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:3">
@@ -8108,10 +8108,10 @@
         <v>10.425000000000001</v>
       </c>
       <c r="B697" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C697" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:3">
@@ -8119,10 +8119,10 @@
         <v>10.44</v>
       </c>
       <c r="B698" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C698" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:3">
@@ -8130,10 +8130,10 @@
         <v>10.455</v>
       </c>
       <c r="B699" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C699" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:3">
@@ -8141,10 +8141,10 @@
         <v>10.47</v>
       </c>
       <c r="B700" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C700" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:3">
@@ -8152,10 +8152,10 @@
         <v>10.484999999999999</v>
       </c>
       <c r="B701" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C701" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:3">
@@ -8163,10 +8163,10 @@
         <v>10.5</v>
       </c>
       <c r="B702" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C702" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:3">
@@ -8174,10 +8174,10 @@
         <v>10.515000000000001</v>
       </c>
       <c r="B703" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C703" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:3">
@@ -8185,10 +8185,10 @@
         <v>10.53</v>
       </c>
       <c r="B704" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C704" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:3">
@@ -8196,10 +8196,10 @@
         <v>10.545</v>
       </c>
       <c r="B705" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C705" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:3">
@@ -8207,10 +8207,10 @@
         <v>10.56</v>
       </c>
       <c r="B706" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C706" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:3">
@@ -8218,10 +8218,10 @@
         <v>10.574999999999999</v>
       </c>
       <c r="B707" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C707" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:3">
@@ -8229,10 +8229,10 @@
         <v>10.59</v>
       </c>
       <c r="B708" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C708" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:3">
@@ -8240,10 +8240,10 @@
         <v>10.605</v>
       </c>
       <c r="B709" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C709" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:3">
@@ -8251,10 +8251,10 @@
         <v>10.62</v>
       </c>
       <c r="B710" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C710" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:3">
@@ -8262,10 +8262,10 @@
         <v>10.635</v>
       </c>
       <c r="B711" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C711" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:3">
@@ -8273,10 +8273,10 @@
         <v>10.65</v>
       </c>
       <c r="B712" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C712" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:3">
@@ -8284,10 +8284,10 @@
         <v>10.664999999999999</v>
       </c>
       <c r="B713" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C713" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:3">
@@ -8295,10 +8295,10 @@
         <v>10.68</v>
       </c>
       <c r="B714" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C714" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:3">
@@ -8306,10 +8306,10 @@
         <v>10.695</v>
       </c>
       <c r="B715" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C715" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:3">
@@ -8317,10 +8317,10 @@
         <v>10.71</v>
       </c>
       <c r="B716" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C716" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:3">
@@ -8328,10 +8328,10 @@
         <v>10.725</v>
       </c>
       <c r="B717" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C717" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:3">
@@ -8339,10 +8339,10 @@
         <v>10.74</v>
       </c>
       <c r="B718" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C718" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:3">
@@ -8350,10 +8350,10 @@
         <v>10.755000000000001</v>
       </c>
       <c r="B719" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C719" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:3">
@@ -8361,10 +8361,10 @@
         <v>10.77</v>
       </c>
       <c r="B720" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C720" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:3">
@@ -8372,10 +8372,10 @@
         <v>10.785</v>
       </c>
       <c r="B721" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C721" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:3">
@@ -8383,10 +8383,10 @@
         <v>10.8</v>
       </c>
       <c r="B722" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C722" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:3">
@@ -8394,10 +8394,10 @@
         <v>10.815</v>
       </c>
       <c r="B723" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C723" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:3">
@@ -8405,10 +8405,10 @@
         <v>10.83</v>
       </c>
       <c r="B724" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C724" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:3">
@@ -8416,10 +8416,10 @@
         <v>10.845000000000001</v>
       </c>
       <c r="B725" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C725" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:3">
@@ -8427,10 +8427,10 @@
         <v>10.86</v>
       </c>
       <c r="B726" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C726" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:3">
@@ -8438,10 +8438,10 @@
         <v>10.875</v>
       </c>
       <c r="B727" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C727" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:3">
@@ -8449,10 +8449,10 @@
         <v>10.89</v>
       </c>
       <c r="B728" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C728" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:3">
@@ -8460,10 +8460,10 @@
         <v>10.904999999999999</v>
       </c>
       <c r="B729" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C729" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:3">
@@ -8471,10 +8471,10 @@
         <v>10.92</v>
       </c>
       <c r="B730" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C730" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:3">
@@ -8482,10 +8482,10 @@
         <v>10.935</v>
       </c>
       <c r="B731" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C731" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:3">
@@ -8493,10 +8493,10 @@
         <v>10.95</v>
       </c>
       <c r="B732" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C732" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:3">
@@ -8504,10 +8504,10 @@
         <v>10.965</v>
       </c>
       <c r="B733" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C733" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:3">
@@ -8515,10 +8515,10 @@
         <v>10.98</v>
       </c>
       <c r="B734" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C734" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:3">
@@ -8526,10 +8526,10 @@
         <v>10.994999999999999</v>
       </c>
       <c r="B735" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C735" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:3">
@@ -8537,10 +8537,10 @@
         <v>11.01</v>
       </c>
       <c r="B736" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C736" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:3">
@@ -8548,10 +8548,10 @@
         <v>11.025</v>
       </c>
       <c r="B737" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C737" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:3">
@@ -8559,10 +8559,10 @@
         <v>11.04</v>
       </c>
       <c r="B738" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C738" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:3">
@@ -8570,10 +8570,10 @@
         <v>11.055</v>
       </c>
       <c r="B739" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C739" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:3">
@@ -8581,10 +8581,10 @@
         <v>11.07</v>
       </c>
       <c r="B740" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C740" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:3">
@@ -8592,10 +8592,10 @@
         <v>11.085000000000001</v>
       </c>
       <c r="B741" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C741" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:3">
@@ -8603,10 +8603,10 @@
         <v>11.1</v>
       </c>
       <c r="B742" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C742" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:3">
@@ -8614,10 +8614,10 @@
         <v>11.115</v>
       </c>
       <c r="B743" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C743" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:3">
@@ -8625,10 +8625,10 @@
         <v>11.13</v>
       </c>
       <c r="B744" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C744" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:3">
@@ -8636,10 +8636,10 @@
         <v>11.145</v>
       </c>
       <c r="B745" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C745" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:3">
@@ -8647,10 +8647,10 @@
         <v>11.16</v>
       </c>
       <c r="B746" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C746" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:3">
@@ -8658,10 +8658,10 @@
         <v>11.175000000000001</v>
       </c>
       <c r="B747" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C747" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:3">
@@ -8669,10 +8669,10 @@
         <v>11.19</v>
       </c>
       <c r="B748" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C748" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:3">
@@ -8680,10 +8680,10 @@
         <v>11.205</v>
       </c>
       <c r="B749" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C749" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:3">
@@ -8691,10 +8691,10 @@
         <v>11.22</v>
       </c>
       <c r="B750" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C750" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:3">
@@ -8702,10 +8702,10 @@
         <v>11.234999999999999</v>
       </c>
       <c r="B751" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C751" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:3">
@@ -8713,10 +8713,10 @@
         <v>11.25</v>
       </c>
       <c r="B752" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C752" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:3">
@@ -8724,10 +8724,10 @@
         <v>11.265000000000001</v>
       </c>
       <c r="B753" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C753" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:3">
@@ -8735,10 +8735,10 @@
         <v>11.28</v>
       </c>
       <c r="B754" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C754" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:3">
@@ -8746,10 +8746,10 @@
         <v>11.295</v>
       </c>
       <c r="B755" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C755" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:3">
@@ -8757,10 +8757,10 @@
         <v>11.31</v>
       </c>
       <c r="B756" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C756" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:3">
@@ -8768,10 +8768,10 @@
         <v>11.324999999999999</v>
       </c>
       <c r="B757" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C757" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:3">
@@ -8779,10 +8779,10 @@
         <v>11.34</v>
       </c>
       <c r="B758" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C758" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:3">
@@ -8790,10 +8790,10 @@
         <v>11.355</v>
       </c>
       <c r="B759" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C759" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:3">
@@ -8801,10 +8801,10 @@
         <v>11.37</v>
       </c>
       <c r="B760" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C760" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:3">
@@ -8812,10 +8812,10 @@
         <v>11.385</v>
       </c>
       <c r="B761" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C761" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:3">
@@ -8823,10 +8823,10 @@
         <v>11.4</v>
       </c>
       <c r="B762" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C762" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:3">
@@ -8834,10 +8834,10 @@
         <v>11.414999999999999</v>
       </c>
       <c r="B763" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C763" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:3">
@@ -8845,10 +8845,10 @@
         <v>11.43</v>
       </c>
       <c r="B764" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C764" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:3">
@@ -8856,10 +8856,10 @@
         <v>11.445</v>
       </c>
       <c r="B765" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C765" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:3">
@@ -8867,10 +8867,10 @@
         <v>11.46</v>
       </c>
       <c r="B766" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C766" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:3">
@@ -8878,10 +8878,10 @@
         <v>11.475</v>
       </c>
       <c r="B767" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C767" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:3">
@@ -8889,10 +8889,10 @@
         <v>11.49</v>
       </c>
       <c r="B768" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C768" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:3">
@@ -8900,10 +8900,10 @@
         <v>11.505000000000001</v>
       </c>
       <c r="B769" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C769" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:3">
@@ -8911,10 +8911,10 @@
         <v>11.52</v>
       </c>
       <c r="B770" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C770" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:3">
@@ -8922,10 +8922,10 @@
         <v>11.535</v>
       </c>
       <c r="B771" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C771" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:3">
@@ -8933,10 +8933,10 @@
         <v>11.55</v>
       </c>
       <c r="B772" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C772" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:3">
@@ -8944,10 +8944,10 @@
         <v>11.565</v>
       </c>
       <c r="B773" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C773" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:3">
@@ -8955,10 +8955,10 @@
         <v>11.58</v>
       </c>
       <c r="B774" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C774" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:3">
@@ -8966,10 +8966,10 @@
         <v>11.595000000000001</v>
       </c>
       <c r="B775" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C775" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:3">
@@ -8977,10 +8977,10 @@
         <v>11.61</v>
       </c>
       <c r="B776" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C776" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:3">
@@ -8988,10 +8988,10 @@
         <v>11.625</v>
       </c>
       <c r="B777" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C777" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:3">
@@ -8999,10 +8999,10 @@
         <v>11.64</v>
       </c>
       <c r="B778" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C778" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:3">
@@ -9010,10 +9010,10 @@
         <v>11.654999999999999</v>
       </c>
       <c r="B779" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C779" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:3">
@@ -9021,10 +9021,10 @@
         <v>11.67</v>
       </c>
       <c r="B780" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C780" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:3">
@@ -9032,10 +9032,10 @@
         <v>11.685</v>
       </c>
       <c r="B781" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C781" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:3">
@@ -9043,10 +9043,10 @@
         <v>11.7</v>
       </c>
       <c r="B782" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C782" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:3">
@@ -9054,10 +9054,10 @@
         <v>11.715</v>
       </c>
       <c r="B783" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C783" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:3">
@@ -9065,10 +9065,10 @@
         <v>11.73</v>
       </c>
       <c r="B784" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C784" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:3">
@@ -9076,10 +9076,10 @@
         <v>11.744999999999999</v>
       </c>
       <c r="B785" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C785" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:3">
@@ -9087,10 +9087,10 @@
         <v>11.76</v>
       </c>
       <c r="B786" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C786" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:3">
@@ -9098,10 +9098,10 @@
         <v>11.775</v>
       </c>
       <c r="B787" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C787" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:3">
@@ -9109,10 +9109,10 @@
         <v>11.79</v>
       </c>
       <c r="B788" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C788" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:3">
@@ -9120,10 +9120,10 @@
         <v>11.805</v>
       </c>
       <c r="B789" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C789" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:3">
@@ -9131,10 +9131,10 @@
         <v>11.82</v>
       </c>
       <c r="B790" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C790" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:3">
@@ -9142,10 +9142,10 @@
         <v>11.835000000000001</v>
       </c>
       <c r="B791" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C791" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:3">
@@ -9153,10 +9153,10 @@
         <v>11.85</v>
       </c>
       <c r="B792" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C792" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:3">
@@ -9164,10 +9164,10 @@
         <v>11.865</v>
       </c>
       <c r="B793" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C793" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:3">
@@ -9175,10 +9175,10 @@
         <v>11.88</v>
       </c>
       <c r="B794" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C794" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:3">
@@ -9186,10 +9186,10 @@
         <v>11.895</v>
       </c>
       <c r="B795" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C795" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:3">
@@ -9197,10 +9197,10 @@
         <v>11.91</v>
       </c>
       <c r="B796" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C796" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:3">
@@ -9208,10 +9208,10 @@
         <v>11.925000000000001</v>
       </c>
       <c r="B797" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C797" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:3">
@@ -9219,10 +9219,10 @@
         <v>11.94</v>
       </c>
       <c r="B798" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C798" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:3">
@@ -9230,10 +9230,10 @@
         <v>11.955</v>
       </c>
       <c r="B799" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C799" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:3">
@@ -9241,10 +9241,10 @@
         <v>11.97</v>
       </c>
       <c r="B800" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C800" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:3">
@@ -9252,10 +9252,10 @@
         <v>11.984999999999999</v>
       </c>
       <c r="B801" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C801" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:3">
@@ -9263,10 +9263,10 @@
         <v>12</v>
       </c>
       <c r="B802" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C802" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:3">
@@ -9274,10 +9274,10 @@
         <v>12.015000000000001</v>
       </c>
       <c r="B803" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C803" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:3">
@@ -9285,10 +9285,10 @@
         <v>12.03</v>
       </c>
       <c r="B804" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C804" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:3">
@@ -9296,10 +9296,10 @@
         <v>12.045</v>
       </c>
       <c r="B805" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C805" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:3">
@@ -9307,10 +9307,10 @@
         <v>12.06</v>
       </c>
       <c r="B806" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C806" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:3">
@@ -9318,10 +9318,10 @@
         <v>12.074999999999999</v>
       </c>
       <c r="B807" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C807" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:3">
@@ -9329,10 +9329,10 @@
         <v>12.09</v>
       </c>
       <c r="B808" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C808" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:3">
@@ -9340,10 +9340,10 @@
         <v>12.105</v>
       </c>
       <c r="B809" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C809" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:3">
@@ -9351,10 +9351,10 @@
         <v>12.12</v>
       </c>
       <c r="B810" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C810" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:3">
@@ -9362,10 +9362,10 @@
         <v>12.135</v>
       </c>
       <c r="B811" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C811" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:3">
@@ -9373,10 +9373,10 @@
         <v>12.15</v>
       </c>
       <c r="B812" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C812" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:3">
@@ -9384,10 +9384,10 @@
         <v>12.164999999999999</v>
       </c>
       <c r="B813" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C813" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:3">
@@ -9395,10 +9395,10 @@
         <v>12.18</v>
       </c>
       <c r="B814" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C814" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:3">
@@ -9406,10 +9406,10 @@
         <v>12.195</v>
       </c>
       <c r="B815" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C815" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:3">
@@ -9417,10 +9417,10 @@
         <v>12.21</v>
       </c>
       <c r="B816" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C816" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:3">
@@ -9428,10 +9428,10 @@
         <v>12.225</v>
       </c>
       <c r="B817" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C817" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:3">
@@ -9439,10 +9439,10 @@
         <v>12.24</v>
       </c>
       <c r="B818" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C818" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:3">
@@ -9450,10 +9450,10 @@
         <v>12.255000000000001</v>
       </c>
       <c r="B819" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C819" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:3">
@@ -9461,10 +9461,10 @@
         <v>12.27</v>
       </c>
       <c r="B820" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C820" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:3">
@@ -9472,10 +9472,10 @@
         <v>12.285</v>
       </c>
       <c r="B821" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C821" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:3">
@@ -9483,10 +9483,10 @@
         <v>12.3</v>
       </c>
       <c r="B822" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C822" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:3">
@@ -9494,10 +9494,10 @@
         <v>12.315</v>
       </c>
       <c r="B823" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C823" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:3">
@@ -9505,10 +9505,10 @@
         <v>12.33</v>
       </c>
       <c r="B824" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C824" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:3">
@@ -9516,10 +9516,10 @@
         <v>12.345000000000001</v>
       </c>
       <c r="B825" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C825" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:3">
@@ -9527,10 +9527,10 @@
         <v>12.36</v>
       </c>
       <c r="B826" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C826" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:3">
@@ -9538,10 +9538,10 @@
         <v>12.375</v>
       </c>
       <c r="B827" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C827" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:3">
@@ -9549,10 +9549,10 @@
         <v>12.39</v>
       </c>
       <c r="B828" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C828" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:3">
@@ -9560,10 +9560,10 @@
         <v>12.404999999999999</v>
       </c>
       <c r="B829" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C829" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:3">
@@ -9571,10 +9571,10 @@
         <v>12.42</v>
       </c>
       <c r="B830" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C830" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:3">
@@ -9582,10 +9582,10 @@
         <v>12.435</v>
       </c>
       <c r="B831" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C831" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:3">
@@ -9593,10 +9593,10 @@
         <v>12.45</v>
       </c>
       <c r="B832" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C832" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:3">
@@ -9604,10 +9604,10 @@
         <v>12.465</v>
       </c>
       <c r="B833" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C833" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:3">
@@ -9615,10 +9615,10 @@
         <v>12.48</v>
       </c>
       <c r="B834" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C834" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:3">
@@ -9626,10 +9626,10 @@
         <v>12.494999999999999</v>
       </c>
       <c r="B835" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C835" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:3">
@@ -9637,10 +9637,10 @@
         <v>12.51</v>
       </c>
       <c r="B836" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C836" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:3">
@@ -9648,10 +9648,10 @@
         <v>12.525</v>
       </c>
       <c r="B837" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C837" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:3">
@@ -9659,10 +9659,10 @@
         <v>12.54</v>
       </c>
       <c r="B838" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C838" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:3">
@@ -9670,10 +9670,10 @@
         <v>12.555</v>
       </c>
       <c r="B839" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C839" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:3">
@@ -9681,10 +9681,10 @@
         <v>12.57</v>
       </c>
       <c r="B840" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C840" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:3">
@@ -9692,10 +9692,10 @@
         <v>12.585000000000001</v>
       </c>
       <c r="B841" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C841" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:3">
@@ -9703,10 +9703,10 @@
         <v>12.6</v>
       </c>
       <c r="B842" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C842" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:3">
@@ -9714,10 +9714,10 @@
         <v>12.615</v>
       </c>
       <c r="B843" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C843" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:3">
@@ -9725,10 +9725,10 @@
         <v>12.63</v>
       </c>
       <c r="B844" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C844" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:3">
@@ -9736,10 +9736,10 @@
         <v>12.645</v>
       </c>
       <c r="B845" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C845" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:3">
@@ -9747,10 +9747,10 @@
         <v>12.66</v>
       </c>
       <c r="B846" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C846" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:3">
@@ -9758,10 +9758,10 @@
         <v>12.675000000000001</v>
       </c>
       <c r="B847" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C847" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:3">
@@ -9769,10 +9769,10 @@
         <v>12.69</v>
       </c>
       <c r="B848" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C848" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:3">
@@ -9780,10 +9780,10 @@
         <v>12.705</v>
       </c>
       <c r="B849" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C849" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:3">
@@ -9791,10 +9791,10 @@
         <v>12.72</v>
       </c>
       <c r="B850" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C850" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:3">
@@ -9802,10 +9802,10 @@
         <v>12.734999999999999</v>
       </c>
       <c r="B851" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C851" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:3">
@@ -9813,10 +9813,10 @@
         <v>12.75</v>
       </c>
       <c r="B852" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C852" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:3">
@@ -9824,10 +9824,10 @@
         <v>12.765000000000001</v>
       </c>
       <c r="B853" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C853" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:3">
@@ -9835,10 +9835,10 @@
         <v>12.78</v>
       </c>
       <c r="B854" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C854" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:3">
@@ -9846,10 +9846,10 @@
         <v>12.795</v>
       </c>
       <c r="B855" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C855" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:3">
@@ -9857,10 +9857,10 @@
         <v>12.81</v>
       </c>
       <c r="B856" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C856" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:3">
@@ -9868,10 +9868,10 @@
         <v>12.824999999999999</v>
       </c>
       <c r="B857" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C857" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:3">
@@ -9879,10 +9879,10 @@
         <v>12.84</v>
       </c>
       <c r="B858" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C858" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:3">
@@ -9890,10 +9890,10 @@
         <v>12.855</v>
       </c>
       <c r="B859" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C859" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:3">
@@ -9901,10 +9901,10 @@
         <v>12.87</v>
       </c>
       <c r="B860" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C860" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:3">
@@ -9912,10 +9912,10 @@
         <v>12.885</v>
       </c>
       <c r="B861" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C861" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:3">
@@ -9923,10 +9923,10 @@
         <v>12.9</v>
       </c>
       <c r="B862" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C862" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:3">
@@ -9934,10 +9934,10 @@
         <v>12.914999999999999</v>
       </c>
       <c r="B863" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C863" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:3">
@@ -9945,10 +9945,10 @@
         <v>12.93</v>
       </c>
       <c r="B864" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C864" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:3">
@@ -9956,10 +9956,10 @@
         <v>12.945</v>
       </c>
       <c r="B865" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C865" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:3">
@@ -9967,10 +9967,10 @@
         <v>12.96</v>
       </c>
       <c r="B866" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C866" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:3">
@@ -9978,10 +9978,10 @@
         <v>12.975</v>
       </c>
       <c r="B867" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C867" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:3">
@@ -9989,10 +9989,10 @@
         <v>12.99</v>
       </c>
       <c r="B868" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C868" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:3">
@@ -10000,10 +10000,10 @@
         <v>13.005000000000001</v>
       </c>
       <c r="B869" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C869" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:3">
@@ -10011,10 +10011,10 @@
         <v>13.02</v>
       </c>
       <c r="B870" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C870" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:3">
@@ -10022,10 +10022,10 @@
         <v>13.035</v>
       </c>
       <c r="B871" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C871" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:3">
@@ -10033,10 +10033,10 @@
         <v>13.05</v>
       </c>
       <c r="B872" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C872" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:3">
@@ -10044,10 +10044,10 @@
         <v>13.065</v>
       </c>
       <c r="B873" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C873" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:3">
@@ -10055,10 +10055,10 @@
         <v>13.08</v>
       </c>
       <c r="B874" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C874" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:3">
@@ -10066,10 +10066,10 @@
         <v>13.095000000000001</v>
       </c>
       <c r="B875" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C875" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:3">
@@ -10077,10 +10077,10 @@
         <v>13.11</v>
       </c>
       <c r="B876" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C876" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:3">
@@ -10088,10 +10088,10 @@
         <v>13.125</v>
       </c>
       <c r="B877" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C877" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:3">
@@ -10099,10 +10099,10 @@
         <v>13.14</v>
       </c>
       <c r="B878" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C878" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:3">
@@ -10110,10 +10110,10 @@
         <v>13.154999999999999</v>
       </c>
       <c r="B879" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C879" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:3">
@@ -10121,10 +10121,10 @@
         <v>13.17</v>
       </c>
       <c r="B880" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C880" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:3">
@@ -10132,10 +10132,10 @@
         <v>13.185</v>
       </c>
       <c r="B881" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C881" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:3">
@@ -10143,10 +10143,10 @@
         <v>13.2</v>
       </c>
       <c r="B882" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C882" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:3">
@@ -10154,10 +10154,10 @@
         <v>13.215</v>
       </c>
       <c r="B883" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C883" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:3">
@@ -10165,10 +10165,10 @@
         <v>13.23</v>
       </c>
       <c r="B884" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C884" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:3">
@@ -10176,10 +10176,10 @@
         <v>13.244999999999999</v>
       </c>
       <c r="B885" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C885" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:3">
@@ -10187,10 +10187,10 @@
         <v>13.26</v>
       </c>
       <c r="B886" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C886" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:3">
@@ -10198,10 +10198,10 @@
         <v>13.275</v>
       </c>
       <c r="B887" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C887" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:3">
@@ -10209,10 +10209,10 @@
         <v>13.29</v>
       </c>
       <c r="B888" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C888" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:3">
@@ -10220,10 +10220,10 @@
         <v>13.305</v>
       </c>
       <c r="B889" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C889" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:3">
@@ -10231,10 +10231,10 @@
         <v>13.32</v>
       </c>
       <c r="B890" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C890" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:3">
@@ -10242,10 +10242,10 @@
         <v>13.335000000000001</v>
       </c>
       <c r="B891" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C891" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:3">
@@ -10253,10 +10253,10 @@
         <v>13.35</v>
       </c>
       <c r="B892" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C892" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:3">
@@ -10264,10 +10264,10 @@
         <v>13.365</v>
       </c>
       <c r="B893" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C893" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:3">
@@ -10275,10 +10275,10 @@
         <v>13.38</v>
       </c>
       <c r="B894" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C894" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:3">
@@ -10286,10 +10286,10 @@
         <v>13.395</v>
       </c>
       <c r="B895" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C895" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:3">
@@ -10297,10 +10297,10 @@
         <v>13.41</v>
       </c>
       <c r="B896" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C896" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:3">
@@ -10308,10 +10308,10 @@
         <v>13.425000000000001</v>
       </c>
       <c r="B897" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C897" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:3">
@@ -10319,10 +10319,10 @@
         <v>13.44</v>
       </c>
       <c r="B898" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C898" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:3">
@@ -10330,10 +10330,10 @@
         <v>13.455</v>
       </c>
       <c r="B899" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C899" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:3">
@@ -10341,10 +10341,10 @@
         <v>13.47</v>
       </c>
       <c r="B900" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C900" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:3">
@@ -10352,10 +10352,10 @@
         <v>13.484999999999999</v>
       </c>
       <c r="B901" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C901" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:3">
@@ -10363,10 +10363,10 @@
         <v>13.5</v>
       </c>
       <c r="B902" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C902" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:3">
@@ -10374,10 +10374,10 @@
         <v>13.515000000000001</v>
       </c>
       <c r="B903" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C903" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:3">
@@ -10385,10 +10385,10 @@
         <v>13.53</v>
       </c>
       <c r="B904" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C904" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:3">
@@ -10396,10 +10396,10 @@
         <v>13.545</v>
       </c>
       <c r="B905" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C905" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:3">
@@ -10407,10 +10407,10 @@
         <v>13.56</v>
       </c>
       <c r="B906" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C906" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:3">
@@ -10418,10 +10418,10 @@
         <v>13.574999999999999</v>
       </c>
       <c r="B907" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C907" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:3">
@@ -10429,10 +10429,10 @@
         <v>13.59</v>
       </c>
       <c r="B908" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C908" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:3">
@@ -10440,10 +10440,10 @@
         <v>13.605</v>
       </c>
       <c r="B909" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C909" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:3">
@@ -10451,10 +10451,10 @@
         <v>13.62</v>
       </c>
       <c r="B910" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C910" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:3">
@@ -10462,10 +10462,10 @@
         <v>13.635</v>
       </c>
       <c r="B911" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C911" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:3">
@@ -10473,10 +10473,10 @@
         <v>13.65</v>
       </c>
       <c r="B912" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C912" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:3">
@@ -10484,10 +10484,10 @@
         <v>13.664999999999999</v>
       </c>
       <c r="B913" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C913" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:3">
@@ -10495,10 +10495,10 @@
         <v>13.68</v>
       </c>
       <c r="B914" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C914" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:3">
@@ -10506,10 +10506,10 @@
         <v>13.695</v>
       </c>
       <c r="B915" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C915" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:3">
@@ -10517,10 +10517,10 @@
         <v>13.71</v>
       </c>
       <c r="B916" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C916" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:3">
@@ -10528,10 +10528,10 @@
         <v>13.725</v>
       </c>
       <c r="B917" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C917" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:3">
@@ -10539,10 +10539,10 @@
         <v>13.74</v>
       </c>
       <c r="B918" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C918" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:3">
@@ -10550,10 +10550,10 @@
         <v>13.755000000000001</v>
       </c>
       <c r="B919" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C919" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:3">
@@ -10561,10 +10561,10 @@
         <v>13.77</v>
       </c>
       <c r="B920" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C920" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:3">
@@ -10572,10 +10572,10 @@
         <v>13.785</v>
       </c>
       <c r="B921" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C921" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:3">
@@ -10583,10 +10583,10 @@
         <v>13.8</v>
       </c>
       <c r="B922" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C922" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:3">
@@ -10594,10 +10594,10 @@
         <v>13.815</v>
       </c>
       <c r="B923" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C923" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:3">
@@ -10605,10 +10605,10 @@
         <v>13.83</v>
       </c>
       <c r="B924" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C924" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:3">
@@ -10616,10 +10616,10 @@
         <v>13.845000000000001</v>
       </c>
       <c r="B925" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C925" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:3">
@@ -10627,10 +10627,10 @@
         <v>13.86</v>
       </c>
       <c r="B926" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C926" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:3">
@@ -10638,10 +10638,10 @@
         <v>13.875</v>
       </c>
       <c r="B927" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C927" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:3">
@@ -10649,10 +10649,10 @@
         <v>13.89</v>
       </c>
       <c r="B928" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C928" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:3">
@@ -10660,10 +10660,10 @@
         <v>13.904999999999999</v>
       </c>
       <c r="B929" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C929" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930" spans="1:3">
@@ -10671,10 +10671,10 @@
         <v>13.92</v>
       </c>
       <c r="B930" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C930" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:3">
@@ -10682,10 +10682,10 @@
         <v>13.935</v>
       </c>
       <c r="B931" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C931" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:3">
@@ -10693,10 +10693,10 @@
         <v>13.95</v>
       </c>
       <c r="B932" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C932" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="933" spans="1:3">
@@ -10704,10 +10704,10 @@
         <v>13.965</v>
       </c>
       <c r="B933" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C933" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934" spans="1:3">
@@ -10715,10 +10715,10 @@
         <v>13.98</v>
       </c>
       <c r="B934" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C934" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:3">
@@ -10726,10 +10726,10 @@
         <v>13.994999999999999</v>
       </c>
       <c r="B935" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C935" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936" spans="1:3">
@@ -10737,10 +10737,10 @@
         <v>14.01</v>
       </c>
       <c r="B936" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C936" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937" spans="1:3">
@@ -10748,10 +10748,10 @@
         <v>14.025</v>
       </c>
       <c r="B937" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C937" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:3">
@@ -10759,10 +10759,10 @@
         <v>14.04</v>
       </c>
       <c r="B938" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C938" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:3">
@@ -10770,10 +10770,10 @@
         <v>14.055</v>
       </c>
       <c r="B939" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C939" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940" spans="1:3">
@@ -10781,10 +10781,10 @@
         <v>14.07</v>
       </c>
       <c r="B940" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C940" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:3">
@@ -10792,10 +10792,10 @@
         <v>14.085000000000001</v>
       </c>
       <c r="B941" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C941" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942" spans="1:3">
@@ -10803,10 +10803,10 @@
         <v>14.1</v>
       </c>
       <c r="B942" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C942" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943" spans="1:3">
@@ -10814,10 +10814,10 @@
         <v>14.115</v>
       </c>
       <c r="B943" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C943" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:3">
@@ -10825,10 +10825,10 @@
         <v>14.13</v>
       </c>
       <c r="B944" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C944" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945" spans="1:3">
@@ -10836,10 +10836,10 @@
         <v>14.145</v>
       </c>
       <c r="B945" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C945" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:3">
@@ -10847,10 +10847,10 @@
         <v>14.16</v>
       </c>
       <c r="B946" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C946" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="947" spans="1:3">
@@ -10858,10 +10858,10 @@
         <v>14.175000000000001</v>
       </c>
       <c r="B947" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C947" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="948" spans="1:3">
@@ -10869,10 +10869,10 @@
         <v>14.19</v>
       </c>
       <c r="B948" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C948" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="949" spans="1:3">
@@ -10880,10 +10880,10 @@
         <v>14.205</v>
       </c>
       <c r="B949" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C949" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:3">
@@ -10891,10 +10891,10 @@
         <v>14.22</v>
       </c>
       <c r="B950" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C950" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="951" spans="1:3">
@@ -10902,10 +10902,10 @@
         <v>14.234999999999999</v>
       </c>
       <c r="B951" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C951" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952" spans="1:3">
@@ -10913,10 +10913,10 @@
         <v>14.25</v>
       </c>
       <c r="B952" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C952" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="953" spans="1:3">
@@ -10924,10 +10924,10 @@
         <v>14.265000000000001</v>
       </c>
       <c r="B953" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C953" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954" spans="1:3">
@@ -10935,10 +10935,10 @@
         <v>14.28</v>
       </c>
       <c r="B954" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C954" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955" spans="1:3">
@@ -10946,10 +10946,10 @@
         <v>14.295</v>
       </c>
       <c r="B955" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C955" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956" spans="1:3">
@@ -10957,10 +10957,10 @@
         <v>14.31</v>
       </c>
       <c r="B956" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C956" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957" spans="1:3">
@@ -10968,10 +10968,10 @@
         <v>14.324999999999999</v>
       </c>
       <c r="B957" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C957" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958" spans="1:3">
@@ -10979,10 +10979,10 @@
         <v>14.34</v>
       </c>
       <c r="B958" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C958" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:3">
@@ -10990,10 +10990,10 @@
         <v>14.355</v>
       </c>
       <c r="B959" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C959" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="960" spans="1:3">
@@ -11001,10 +11001,10 @@
         <v>14.37</v>
       </c>
       <c r="B960" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C960" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="961" spans="1:3">
@@ -11012,10 +11012,10 @@
         <v>14.385</v>
       </c>
       <c r="B961" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C961" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962" spans="1:3">
@@ -11023,10 +11023,10 @@
         <v>14.4</v>
       </c>
       <c r="B962" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C962" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963" spans="1:3">
@@ -11034,10 +11034,10 @@
         <v>14.414999999999999</v>
       </c>
       <c r="B963" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C963" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="964" spans="1:3">
@@ -11045,10 +11045,10 @@
         <v>14.43</v>
       </c>
       <c r="B964" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C964" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965" spans="1:3">
@@ -11056,10 +11056,10 @@
         <v>14.445</v>
       </c>
       <c r="B965" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C965" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966" spans="1:3">
@@ -11067,10 +11067,10 @@
         <v>14.46</v>
       </c>
       <c r="B966" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C966" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="967" spans="1:3">
@@ -11078,10 +11078,10 @@
         <v>14.475</v>
       </c>
       <c r="B967" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C967" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="968" spans="1:3">
@@ -11089,10 +11089,10 @@
         <v>14.49</v>
       </c>
       <c r="B968" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C968" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969" spans="1:3">
@@ -11100,10 +11100,10 @@
         <v>14.505000000000001</v>
       </c>
       <c r="B969" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C969" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970" spans="1:3">
@@ -11111,10 +11111,10 @@
         <v>14.52</v>
       </c>
       <c r="B970" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C970" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971" spans="1:3">
@@ -11122,10 +11122,10 @@
         <v>14.535</v>
       </c>
       <c r="B971" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C971" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="972" spans="1:3">
@@ -11133,10 +11133,10 @@
         <v>14.55</v>
       </c>
       <c r="B972" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C972" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:3">
@@ -11144,10 +11144,10 @@
         <v>14.565</v>
       </c>
       <c r="B973" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C973" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:3">
@@ -11155,10 +11155,10 @@
         <v>14.58</v>
       </c>
       <c r="B974" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C974" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="975" spans="1:3">
@@ -11166,10 +11166,10 @@
         <v>14.595000000000001</v>
       </c>
       <c r="B975" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C975" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="976" spans="1:3">
@@ -11177,10 +11177,10 @@
         <v>14.61</v>
       </c>
       <c r="B976" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C976" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977" spans="1:3">
@@ -11188,10 +11188,10 @@
         <v>14.625</v>
       </c>
       <c r="B977" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C977" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978" spans="1:3">
@@ -11199,10 +11199,10 @@
         <v>14.64</v>
       </c>
       <c r="B978" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C978" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:3">
@@ -11210,10 +11210,10 @@
         <v>14.654999999999999</v>
       </c>
       <c r="B979" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C979" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:3">
@@ -11221,10 +11221,10 @@
         <v>14.67</v>
       </c>
       <c r="B980" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C980" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981" spans="1:3">
@@ -11232,10 +11232,10 @@
         <v>14.685</v>
       </c>
       <c r="B981" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C981" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="982" spans="1:3">
@@ -11243,10 +11243,10 @@
         <v>14.7</v>
       </c>
       <c r="B982" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C982" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:3">
@@ -11254,10 +11254,10 @@
         <v>14.715</v>
       </c>
       <c r="B983" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C983" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984" spans="1:3">
@@ -11265,10 +11265,10 @@
         <v>14.73</v>
       </c>
       <c r="B984" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C984" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985" spans="1:3">
@@ -11276,10 +11276,10 @@
         <v>14.744999999999999</v>
       </c>
       <c r="B985" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C985" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986" spans="1:3">
@@ -11287,10 +11287,10 @@
         <v>14.76</v>
       </c>
       <c r="B986" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C986" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="987" spans="1:3">
@@ -11298,10 +11298,10 @@
         <v>14.775</v>
       </c>
       <c r="B987" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C987" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="988" spans="1:3">
@@ -11309,10 +11309,10 @@
         <v>14.79</v>
       </c>
       <c r="B988" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C988" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:3">
@@ -11320,10 +11320,10 @@
         <v>14.805</v>
       </c>
       <c r="B989" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C989" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990" spans="1:3">
@@ -11331,10 +11331,10 @@
         <v>14.82</v>
       </c>
       <c r="B990" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C990" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991" spans="1:3">
@@ -11342,10 +11342,10 @@
         <v>14.835000000000001</v>
       </c>
       <c r="B991" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C991" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:3">
@@ -11353,10 +11353,10 @@
         <v>14.85</v>
       </c>
       <c r="B992" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C992" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="993" spans="1:3">
@@ -11364,10 +11364,10 @@
         <v>14.865</v>
       </c>
       <c r="B993" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C993" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="994" spans="1:3">
@@ -11375,10 +11375,10 @@
         <v>14.88</v>
       </c>
       <c r="B994" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C994" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995" spans="1:3">
@@ -11386,10 +11386,10 @@
         <v>14.895</v>
       </c>
       <c r="B995" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C995" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="996" spans="1:3">
@@ -11397,10 +11397,10 @@
         <v>14.91</v>
       </c>
       <c r="B996" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C996" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:3">
@@ -11408,10 +11408,10 @@
         <v>14.925000000000001</v>
       </c>
       <c r="B997" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C997" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:3">
@@ -11419,10 +11419,10 @@
         <v>14.94</v>
       </c>
       <c r="B998" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C998" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999" spans="1:3">
@@ -11430,10 +11430,10 @@
         <v>14.955</v>
       </c>
       <c r="B999" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C999" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1000" spans="1:3">
@@ -11441,10 +11441,10 @@
         <v>14.97</v>
       </c>
       <c r="B1000" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C1000" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1001" spans="1:3">
@@ -11452,10 +11452,10 @@
         <v>14.984999999999999</v>
       </c>
       <c r="B1001" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C1001" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002" spans="1:3">
@@ -11463,10 +11463,10 @@
         <v>15</v>
       </c>
       <c r="B1002" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C1002" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1003" spans="1:3">
@@ -11474,10 +11474,10 @@
         <v>15.015000000000001</v>
       </c>
       <c r="B1003" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C1003" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1004" spans="1:3">
@@ -11485,10 +11485,10 @@
         <v>15.03</v>
       </c>
       <c r="B1004" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C1004" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1005" spans="1:3">
@@ -11496,10 +11496,10 @@
         <v>15.045</v>
       </c>
       <c r="B1005" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C1005" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1006" spans="1:3">
@@ -11507,10 +11507,10 @@
         <v>15.06</v>
       </c>
       <c r="B1006" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C1006" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1007" spans="1:3">
@@ -11518,10 +11518,10 @@
         <v>15.074999999999999</v>
       </c>
       <c r="B1007" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C1007" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1008" spans="1:3">
@@ -11529,10 +11529,10 @@
         <v>15.09</v>
       </c>
       <c r="B1008" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C1008" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1009" spans="1:3">
@@ -11540,10 +11540,10 @@
         <v>15.105</v>
       </c>
       <c r="B1009" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C1009" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1010" spans="1:3">
@@ -11551,10 +11551,10 @@
         <v>15.12</v>
       </c>
       <c r="B1010" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C1010" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1011" spans="1:3">
@@ -11562,10 +11562,10 @@
         <v>15.135</v>
       </c>
       <c r="B1011" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C1011" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1012" spans="1:3">
@@ -11573,10 +11573,10 @@
         <v>15.15</v>
       </c>
       <c r="B1012" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C1012" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1013" spans="1:3">
@@ -11584,10 +11584,10 @@
         <v>15.164999999999999</v>
       </c>
       <c r="B1013" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C1013" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1014" spans="1:3">
@@ -11595,10 +11595,10 @@
         <v>15.18</v>
       </c>
       <c r="B1014" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C1014" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1015" spans="1:3">
@@ -11606,10 +11606,10 @@
         <v>15.195</v>
       </c>
       <c r="B1015" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C1015" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1016" spans="1:3">
@@ -11617,10 +11617,10 @@
         <v>15.21</v>
       </c>
       <c r="B1016" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C1016" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1017" spans="1:3">
@@ -11628,10 +11628,10 @@
         <v>15.225</v>
       </c>
       <c r="B1017" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C1017" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1018" spans="1:3">
@@ -11639,10 +11639,10 @@
         <v>15.24</v>
       </c>
       <c r="B1018" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C1018" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1019" spans="1:3">
@@ -11650,10 +11650,10 @@
         <v>15.255000000000001</v>
       </c>
       <c r="B1019" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C1019" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1020" spans="1:3">
@@ -11661,10 +11661,10 @@
         <v>15.27</v>
       </c>
       <c r="B1020" s="3">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C1020" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1021" spans="1:3">
@@ -11672,10 +11672,10 @@
         <v>15.285</v>
       </c>
       <c r="B1021" s="3">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C1021" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1022" spans="1:3">
@@ -11683,10 +11683,10 @@
         <v>15.3</v>
       </c>
       <c r="B1022" s="3">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C1022" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1023" spans="1:3">
@@ -11694,10 +11694,10 @@
         <v>15.315</v>
       </c>
       <c r="B1023" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C1023" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1024" spans="1:3">
@@ -11705,10 +11705,10 @@
         <v>15.33</v>
       </c>
       <c r="B1024" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C1024" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1025" spans="1:3">
@@ -11716,10 +11716,10 @@
         <v>15.345000000000001</v>
       </c>
       <c r="B1025" s="3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C1025" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1026" spans="1:3">
@@ -11730,7 +11730,7 @@
         <v>0</v>
       </c>
       <c r="C1026" s="3">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1027" spans="1:3">
@@ -11741,7 +11741,7 @@
         <v>0</v>
       </c>
       <c r="C1027" s="3">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1028" spans="1:3">
@@ -11752,7 +11752,7 @@
         <v>0</v>
       </c>
       <c r="C1028" s="3">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1029" spans="1:3">
@@ -11763,7 +11763,7 @@
         <v>0</v>
       </c>
       <c r="C1029" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1030" spans="1:3">
@@ -11774,7 +11774,7 @@
         <v>0</v>
       </c>
       <c r="C1030" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1031" spans="1:3">
@@ -11785,7 +11785,7 @@
         <v>0</v>
       </c>
       <c r="C1031" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1032" spans="1:3">
@@ -11796,7 +11796,7 @@
         <v>0</v>
       </c>
       <c r="C1032" s="3">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1033" spans="1:3">
@@ -11807,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="C1033" s="3">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1034" spans="1:3">
@@ -11818,7 +11818,7 @@
         <v>0</v>
       </c>
       <c r="C1034" s="3">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1035" spans="1:3">
